--- a/uploads/PROFILE.xlsx
+++ b/uploads/PROFILE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D1DEE-E379-4AD0-A301-1190A3205781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
   <si>
     <t>DOB</t>
   </si>
@@ -183,13 +184,97 @@
   </si>
   <si>
     <t>o+</t>
+  </si>
+  <si>
+    <t>Enrollment Number</t>
+  </si>
+  <si>
+    <t>Banasthali Id</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Street Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Mobile_no</t>
+  </si>
+  <si>
+    <t>Parent mobile no</t>
+  </si>
+  <si>
+    <t>btbte1@gmail.com</t>
+  </si>
+  <si>
+    <t>btbte2@gmail.com</t>
+  </si>
+  <si>
+    <t>btbte4@gmail.com</t>
+  </si>
+  <si>
+    <t>btbte3@gmail.com</t>
+  </si>
+  <si>
+    <t>btbte5@gmail.com</t>
+  </si>
+  <si>
+    <t>btbte6@gmail.com</t>
+  </si>
+  <si>
+    <t>btbte7@gmail.com</t>
+  </si>
+  <si>
+    <t>btbte8@gmail.com</t>
+  </si>
+  <si>
+    <t>btbte9@gmail.com</t>
+  </si>
+  <si>
+    <t>btbte10@gmail.com</t>
+  </si>
+  <si>
+    <t>BTECH</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Gwalior</t>
+  </si>
+  <si>
+    <t>M.P.</t>
+  </si>
+  <si>
+    <t>INDIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +289,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,10 +327,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,71 +615,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="23.109375" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
     <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.77734375" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>36161</v>
+      <c r="B2" s="2">
+        <v>36607</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -601,7 +743,7 @@
       <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L2" t="s">
@@ -610,13 +752,46 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
+      <c r="N2" s="4">
+        <v>1111</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2">
+        <v>400281</v>
+      </c>
+      <c r="W2">
+        <v>9876543210</v>
+      </c>
+      <c r="X2">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>36162</v>
+      <c r="B3" s="2">
+        <v>36242</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -642,7 +817,7 @@
       <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
@@ -651,13 +826,46 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
+      <c r="N3" s="4">
+        <v>1112</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3">
+        <v>400281</v>
+      </c>
+      <c r="W3">
+        <v>9876543210</v>
+      </c>
+      <c r="X3">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>36163</v>
+      <c r="B4" s="2">
+        <v>36243</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -683,7 +891,7 @@
       <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L4" t="s">
@@ -692,13 +900,46 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
+      <c r="N4" s="4">
+        <v>1113</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4">
+        <v>400281</v>
+      </c>
+      <c r="W4">
+        <v>9876543210</v>
+      </c>
+      <c r="X4">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
-        <v>36164</v>
+      <c r="B5" s="2">
+        <v>36244</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -724,7 +965,7 @@
       <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L5" t="s">
@@ -733,13 +974,46 @@
       <c r="M5" t="s">
         <v>38</v>
       </c>
+      <c r="N5" s="4">
+        <v>1114</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V5">
+        <v>400281</v>
+      </c>
+      <c r="W5">
+        <v>9876543210</v>
+      </c>
+      <c r="X5">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1">
-        <v>36165</v>
+      <c r="B6" s="2">
+        <v>36245</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -765,7 +1039,7 @@
       <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L6" t="s">
@@ -774,13 +1048,46 @@
       <c r="M6" t="s">
         <v>39</v>
       </c>
+      <c r="N6" s="4">
+        <v>1115</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6">
+        <v>400281</v>
+      </c>
+      <c r="W6">
+        <v>9876543210</v>
+      </c>
+      <c r="X6">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
-        <v>36166</v>
+      <c r="B7" s="2">
+        <v>36246</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -806,7 +1113,7 @@
       <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L7" t="s">
@@ -815,13 +1122,46 @@
       <c r="M7" t="s">
         <v>40</v>
       </c>
+      <c r="N7" s="4">
+        <v>1116</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V7">
+        <v>400281</v>
+      </c>
+      <c r="W7">
+        <v>9876543210</v>
+      </c>
+      <c r="X7">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
-        <v>36167</v>
+      <c r="B8" s="2">
+        <v>36247</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -847,7 +1187,7 @@
       <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L8" t="s">
@@ -856,13 +1196,46 @@
       <c r="M8" t="s">
         <v>41</v>
       </c>
+      <c r="N8" s="4">
+        <v>1117</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8">
+        <v>400281</v>
+      </c>
+      <c r="W8">
+        <v>9876543210</v>
+      </c>
+      <c r="X8">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
-        <v>36168</v>
+      <c r="B9" s="2">
+        <v>36248</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -888,7 +1261,7 @@
       <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L9" t="s">
@@ -897,13 +1270,46 @@
       <c r="M9" t="s">
         <v>42</v>
       </c>
+      <c r="N9" s="4">
+        <v>1118</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9">
+        <v>400281</v>
+      </c>
+      <c r="W9">
+        <v>9876543210</v>
+      </c>
+      <c r="X9">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1">
-        <v>36169</v>
+      <c r="B10" s="2">
+        <v>36249</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -929,7 +1335,7 @@
       <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L10" t="s">
@@ -938,13 +1344,46 @@
       <c r="M10" t="s">
         <v>43</v>
       </c>
+      <c r="N10" s="4">
+        <v>1119</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10">
+        <v>400281</v>
+      </c>
+      <c r="W10">
+        <v>9876543210</v>
+      </c>
+      <c r="X10">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1">
-        <v>36170</v>
+      <c r="B11" s="2">
+        <v>36250</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -970,7 +1409,7 @@
       <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L11" t="s">
@@ -978,22 +1417,67 @@
       </c>
       <c r="M11" t="s">
         <v>44</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1120</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11">
+        <v>400281</v>
+      </c>
+      <c r="W11">
+        <v>9876543210</v>
+      </c>
+      <c r="X11">
+        <v>1234567890</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7:K11" r:id="rId6" display="test5@gmail.com"/>
-    <hyperlink ref="K7" r:id="rId7"/>
-    <hyperlink ref="K8" r:id="rId8"/>
-    <hyperlink ref="K9" r:id="rId9"/>
-    <hyperlink ref="K10" r:id="rId10"/>
-    <hyperlink ref="K11" r:id="rId11"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7:K11" r:id="rId6" display="test5@gmail.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O2" r:id="rId12" xr:uid="{9EDF5140-5616-4C2A-89D6-2B37C2FA8046}"/>
+    <hyperlink ref="O3:O11" r:id="rId13" display="btbte1@gmail.com" xr:uid="{A60AA0BC-863D-4D20-AC3E-49917C0E79C6}"/>
+    <hyperlink ref="O3" r:id="rId14" xr:uid="{13F3415F-8A17-4D34-ABE8-037DEFF3578A}"/>
+    <hyperlink ref="O4" r:id="rId15" xr:uid="{2C75914D-C7FA-4CE6-8C67-D5B8DB7C39D7}"/>
+    <hyperlink ref="O5" r:id="rId16" xr:uid="{424CC999-BAEC-42AE-8F1E-83B2932FF7A2}"/>
+    <hyperlink ref="O6" r:id="rId17" xr:uid="{62EBA6D8-9B85-42EB-952A-1071B99E354D}"/>
+    <hyperlink ref="O7" r:id="rId18" xr:uid="{7483D9D8-ADF1-46DE-98FC-895A60446A7F}"/>
+    <hyperlink ref="O8" r:id="rId19" xr:uid="{DADE1A9D-E181-432C-92C3-1B4D22F14991}"/>
+    <hyperlink ref="O9" r:id="rId20" xr:uid="{D33AE46B-2830-47BD-94E9-04366FE74BDA}"/>
+    <hyperlink ref="O10" r:id="rId21" xr:uid="{6B763EC1-4BD5-4CBC-B270-EFE2B44CE5C0}"/>
+    <hyperlink ref="O11" r:id="rId22" xr:uid="{1C89127C-2B3E-43FD-9A42-6EC8D767CFD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>